--- a/SRS ENTREGA/ENCUESTA_V0.3.xlsx
+++ b/SRS ENTREGA/ENCUESTA_V0.3.xlsx
@@ -799,7 +799,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1085,11 +1085,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="D129" sqref="D129"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.140625" customWidth="1"/>
@@ -1199,15 +1199,17 @@
       <c r="E5" s="2">
         <v>8</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>8</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="17">
         <f t="shared" ref="H5:H69" si="0">SUM(B5:G5)</f>
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I5" s="2">
         <f>H5/6</f>
-        <v>5.5</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="J5" s="13" t="str">
         <f t="shared" ref="J5:J68" si="1">IF(I5&lt;=4,"DESEABLE",IF(I5&lt;=7,"OPCIONAL",IF(I5&lt;=8.5,"OBLIGATORIO","CLAVE")))</f>
@@ -5149,7 +5151,7 @@
       <selection activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="3" width="24.42578125" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" customWidth="1"/>
@@ -8632,7 +8634,7 @@
       <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" customWidth="1"/>
